--- a/biology/Botanique/Brigitte_Bardot_(rose)/Brigitte_Bardot_(rose).xlsx
+++ b/biology/Botanique/Brigitte_Bardot_(rose)/Brigitte_Bardot_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Brigitte Bardot' est un cultivar de rosier obtenu en 1994 par l'obtenteur français Joseph Orard et mis au commerce en 2001 par les roseraies Orard[1]. Il rend hommage à l'actrice française Brigitte Bardot née en 1934.
+'Brigitte Bardot' est un cultivar de rosier obtenu en 1994 par l'obtenteur français Joseph Orard et mis au commerce en 2001 par les roseraies Orard. Il rend hommage à l'actrice française Brigitte Bardot née en 1934.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de thé présente de grosses fleurs rouges striées de blanc argenté, pleines (40 pétales). La floraison s'étale tout au long de la saison[2]. 
-Son buisson érigé est fort épineux et s'élève à 110 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de thé présente de grosses fleurs rouges striées de blanc argenté, pleines (40 pétales). La floraison s'étale tout au long de la saison. 
+Son buisson érigé est fort épineux et s'élève à 110 cm.
 Sa zone de rusticité est de 6b à 9b ; il supporte donc les hivers rigoureux.
-Il est parfait pour illuminer les plates-bandes et pour la fleur coupée. On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses, et à la roseraie de Bagatelle. Il nécessite une exposition ensoleillée, pour s'épanouir pleinement, mais peut fleurir à mi-ombre[3].
+Il est parfait pour illuminer les plates-bandes et pour la fleur coupée. On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses, et à la roseraie de Bagatelle. Il nécessite une exposition ensoleillée, pour s'épanouir pleinement, mais peut fleurir à mi-ombre.
 </t>
         </is>
       </c>
